--- a/data/144/SCB/ImportExportSnabbM.xlsx
+++ b/data/144/SCB/ImportExportSnabbM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="585">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="589">
   <x:si>
     <x:t>Imports of goods, exports of goods and Net Trade of goods by imports of goods/exports of goods and month</x:t>
   </x:si>
@@ -1703,6 +1703,18 @@
   </x:si>
   <x:si>
     <x:t>2021M10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
   </x:si>
   <x:si>
     <x:t>Total imports, SEK million</x:t>
@@ -1724,7 +1736,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220328 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1778,7 +1790,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -1832,41 +1844,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1877,7 +1886,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -2160,27 +2169,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:UQ42"/>
+  <x:dimension ref="A1:UU42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="563" width="10.840625000000001" style="0" customWidth="1"/>
+    <x:col min="1" max="567" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:563">
+    <x:row r="1" spans="1:567">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:563">
+    <x:row r="3" spans="1:567">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -3867,10 +3875,22 @@
       <x:c r="UQ3" s="2" t="s">
         <x:v>562</x:v>
       </x:c>
+      <x:c r="UR3" s="2" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="US3" s="2" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="UT3" s="2" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="UU3" s="2" t="s">
+        <x:v>566</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:563">
+    <x:row r="4" spans="1:567">
       <x:c r="A4" s="2" t="s">
-        <x:v>563</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>7975</x:v>
@@ -5529,39 +5549,51 @@
         <x:v>118500</x:v>
       </x:c>
       <x:c r="UH4" s="3" t="n">
-        <x:v>109600</x:v>
+        <x:v>110000</x:v>
       </x:c>
       <x:c r="UI4" s="3" t="n">
-        <x:v>117900</x:v>
+        <x:v>118100</x:v>
       </x:c>
       <x:c r="UJ4" s="3" t="n">
-        <x:v>141100</x:v>
+        <x:v>141200</x:v>
       </x:c>
       <x:c r="UK4" s="3" t="n">
-        <x:v>129900</x:v>
+        <x:v>130200</x:v>
       </x:c>
       <x:c r="UL4" s="3" t="n">
         <x:v>130200</x:v>
       </x:c>
       <x:c r="UM4" s="3" t="n">
-        <x:v>135300</x:v>
+        <x:v>135500</x:v>
       </x:c>
       <x:c r="UN4" s="3" t="n">
-        <x:v>120400</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="UO4" s="3" t="n">
-        <x:v>126700</x:v>
+        <x:v>126500</x:v>
       </x:c>
       <x:c r="UP4" s="3" t="n">
-        <x:v>140200</x:v>
+        <x:v>141100</x:v>
       </x:c>
       <x:c r="UQ4" s="3" t="n">
-        <x:v>144400</x:v>
+        <x:v>145700</x:v>
+      </x:c>
+      <x:c r="UR4" s="3" t="n">
+        <x:v>153700</x:v>
+      </x:c>
+      <x:c r="US4" s="3" t="n">
+        <x:v>153000</x:v>
+      </x:c>
+      <x:c r="UT4" s="3" t="n">
+        <x:v>142500</x:v>
+      </x:c>
+      <x:c r="UU4" s="3" t="n">
+        <x:v>149600</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:563">
+    <x:row r="5" spans="1:567">
       <x:c r="A5" s="2" t="s">
-        <x:v>564</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
         <x:v>6200</x:v>
@@ -7223,140 +7255,151 @@
         <x:v>114200</x:v>
       </x:c>
       <x:c r="UI5" s="3" t="n">
-        <x:v>123600</x:v>
+        <x:v>123500</x:v>
       </x:c>
       <x:c r="UJ5" s="3" t="n">
-        <x:v>143800</x:v>
+        <x:v>144200</x:v>
       </x:c>
       <x:c r="UK5" s="3" t="n">
-        <x:v>131700</x:v>
+        <x:v>131800</x:v>
       </x:c>
       <x:c r="UL5" s="3" t="n">
-        <x:v>133800</x:v>
+        <x:v>133700</x:v>
       </x:c>
       <x:c r="UM5" s="3" t="n">
-        <x:v>144200</x:v>
+        <x:v>144300</x:v>
       </x:c>
       <x:c r="UN5" s="3" t="n">
-        <x:v>127100</x:v>
+        <x:v>127000</x:v>
       </x:c>
       <x:c r="UO5" s="3" t="n">
-        <x:v>116000</x:v>
+        <x:v>115400</x:v>
       </x:c>
       <x:c r="UP5" s="3" t="n">
-        <x:v>147000</x:v>
+        <x:v>147100</x:v>
       </x:c>
       <x:c r="UQ5" s="3" t="n">
-        <x:v>145200</x:v>
+        <x:v>145800</x:v>
+      </x:c>
+      <x:c r="UR5" s="3" t="n">
+        <x:v>153500</x:v>
+      </x:c>
+      <x:c r="US5" s="3" t="n">
+        <x:v>147600</x:v>
+      </x:c>
+      <x:c r="UT5" s="3" t="n">
+        <x:v>141400</x:v>
+      </x:c>
+      <x:c r="UU5" s="3" t="n">
+        <x:v>150600</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:563">
+    <x:row r="7" spans="1:567">
       <x:c r="A7" s="4" t="s">
-        <x:v>565</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:563">
+    <x:row r="8" spans="1:567">
       <x:c r="A8" s="4" t="s">
-        <x:v>566</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:563">
+    <x:row r="9" spans="1:567">
       <x:c r="A9" s="4" t="s">
-        <x:v>567</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:563">
+    <x:row r="11" spans="1:567">
       <x:c r="A11" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:563">
+    <x:row r="12" spans="1:567">
       <x:c r="A12" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:563">
+    <x:row r="14" spans="1:567">
       <x:c r="A14" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:563">
+    <x:row r="15" spans="1:567">
       <x:c r="A15" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:563">
+    <x:row r="17" spans="1:567">
       <x:c r="A17" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:563">
+    <x:row r="18" spans="1:567">
       <x:c r="A18" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>577</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:563">
+    <x:row r="19" spans="1:567">
       <x:c r="A19" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:563">
+    <x:row r="20" spans="1:567">
       <x:c r="A20" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:563">
-      <x:c r="A21" s="0" t="s"/>
+    <x:row r="25" spans="1:567">
+      <x:c r="A25" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:563">
-      <x:c r="A22" s="0" t="s"/>
+    <x:row r="26" spans="1:567">
+      <x:c r="A26" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:563">
-      <x:c r="A25" s="0" t="s">
-        <x:v>576</x:v>
+    <x:row r="28" spans="1:567">
+      <x:c r="A28" s="0" t="s">
+        <x:v>582</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:563">
-      <x:c r="A26" s="0" t="s">
-        <x:v>577</x:v>
+    <x:row r="29" spans="1:567">
+      <x:c r="A29" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:563">
-      <x:c r="A28" s="0" t="s">
-        <x:v>578</x:v>
+    <x:row r="36" spans="1:567">
+      <x:c r="A36" s="0" t="s">
+        <x:v>584</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:563">
-      <x:c r="A29" s="0" t="s">
-        <x:v>579</x:v>
+    <x:row r="38" spans="1:567">
+      <x:c r="A38" s="0" t="s">
+        <x:v>585</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:563">
-      <x:c r="A36" s="0" t="s">
-        <x:v>580</x:v>
+    <x:row r="39" spans="1:567">
+      <x:c r="A39" s="0" t="s">
+        <x:v>586</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:563">
-      <x:c r="A38" s="0" t="s">
-        <x:v>581</x:v>
+    <x:row r="41" spans="1:567">
+      <x:c r="A41" s="0" t="s">
+        <x:v>587</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:563">
-      <x:c r="A39" s="0" t="s">
-        <x:v>582</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:563">
-      <x:c r="A41" s="0" t="s">
-        <x:v>583</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:563">
+    <x:row r="42" spans="1:567">
       <x:c r="A42" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>588</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A7:UU7"/>
+    <x:mergeCell ref="A8:UU8"/>
+    <x:mergeCell ref="A9:UU9"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
